--- a/Lab 5/Lab 5.xlsx
+++ b/Lab 5/Lab 5.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prahershkumar/Documents/Prahersh Kumar/School /UIUC/Classes/Fall 2022/AE 460/AE-460/Lab 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5256170-6C35-B248-8DF1-4596A17790B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13C3948-E256-C940-A829-DE22BF37BD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23920" yWindow="2760" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{AB60D2C1-0B5B-2B40-AA37-C588C28FD481}"/>
+    <workbookView xWindow="5520" yWindow="3740" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{AB60D2C1-0B5B-2B40-AA37-C588C28FD481}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Question 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Question 3" sheetId="2" r:id="rId2"/>
+    <sheet name="Querstion 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_2022_10_30_Sample_Data" localSheetId="0">Sheet1!$A$1:$L$1535</definedName>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Time (sec)</t>
   </si>
@@ -134,6 +135,45 @@
   <si>
     <t>Max</t>
   </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>h3</t>
+  </si>
+  <si>
+    <t>h4</t>
+  </si>
+  <si>
+    <t>&amp; 383.5246</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp;  946.4309 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp; 593.3661 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp; 418.5055 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp; 1037.5250 </t>
+  </si>
+  <si>
+    <t>&amp; 605.2865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp; 452.7588 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp; 1119.5570 </t>
+  </si>
+  <si>
+    <t>&amp; 630.9921</t>
+  </si>
 </sst>
 </file>
 
@@ -174,8 +214,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10595,7 +10641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89748FBD-FF85-004A-B9FE-B732D65AA51D}">
   <dimension ref="A1:L1535"/>
   <sheetViews>
-    <sheetView topLeftCell="A1265" zoomScaleNormal="151" workbookViewId="0">
+    <sheetView zoomScaleNormal="151" workbookViewId="0">
       <selection activeCell="K1177" sqref="K1177"/>
     </sheetView>
   </sheetViews>
@@ -68952,8 +68998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07281655-9145-5741-9368-0DD2DF116671}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -69257,4 +69303,134 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A65B60A-661F-0F43-B3E3-27F4D90D7D8F}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>297.04989999999998</v>
+      </c>
+      <c r="C2">
+        <v>296.87959999999998</v>
+      </c>
+      <c r="D2">
+        <v>296.64589999999998</v>
+      </c>
+      <c r="E2">
+        <v>297.12779999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>48000</v>
+      </c>
+      <c r="B3">
+        <v>296.6773</v>
+      </c>
+      <c r="C3">
+        <v>326.75529999999998</v>
+      </c>
+      <c r="D3">
+        <v>806.72550000000001</v>
+      </c>
+      <c r="E3">
+        <v>475.95699999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>58000</v>
+      </c>
+      <c r="B4">
+        <v>96.956800000000001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>68000</v>
+      </c>
+      <c r="B5">
+        <v>296.83449999999999</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>296.5224</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Lab 5/Lab 5.xlsx
+++ b/Lab 5/Lab 5.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prahershkumar/Documents/Prahersh Kumar/School /UIUC/Classes/Fall 2022/AE 460/AE-460/Lab 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13C3948-E256-C940-A829-DE22BF37BD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3889DCC8-980F-EA4C-B526-A3857118A674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="3740" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{AB60D2C1-0B5B-2B40-AA37-C588C28FD481}"/>
+    <workbookView xWindow="1940" yWindow="1200" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{AB60D2C1-0B5B-2B40-AA37-C588C28FD481}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Question 3" sheetId="2" r:id="rId2"/>
-    <sheet name="Querstion 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Querstion 3.1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_2022_10_30_Sample_Data" localSheetId="0">Sheet1!$A$1:$L$1535</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>Time (sec)</t>
   </si>
@@ -148,39 +148,35 @@
     <t>h4</t>
   </si>
   <si>
-    <t>&amp; 383.5246</t>
+    <t xml:space="preserve">Pamb </t>
   </si>
   <si>
-    <t xml:space="preserve"> &amp;  946.4309 </t>
+    <t>pr1</t>
   </si>
   <si>
-    <t xml:space="preserve">&amp; 593.3661 </t>
+    <t>pr2</t>
   </si>
   <si>
-    <t xml:space="preserve"> &amp; 418.5055 </t>
+    <t>h2s</t>
   </si>
   <si>
-    <t xml:space="preserve">&amp; 1037.5250 </t>
-  </si>
-  <si>
-    <t>&amp; 605.2865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp; 452.7588 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp; 1119.5570 </t>
-  </si>
-  <si>
-    <t>&amp; 630.9921</t>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -214,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -222,6 +218,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10639,10 +10642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89748FBD-FF85-004A-B9FE-B732D65AA51D}">
-  <dimension ref="A1:L1535"/>
+  <dimension ref="A1:O1535"/>
   <sheetViews>
     <sheetView zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="K1177" sqref="K1177"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10658,7 +10661,7 @@
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10695,8 +10698,14 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1">
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>329.625</v>
       </c>
@@ -10734,7 +10743,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>329.82400000000001</v>
       </c>
@@ -10772,7 +10781,7 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>330.02499999999998</v>
       </c>
@@ -10810,7 +10819,7 @@
         <v>1.016</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>330.22500000000002</v>
       </c>
@@ -10848,7 +10857,7 @@
         <v>1.147</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>330.42599999999999</v>
       </c>
@@ -10886,7 +10895,7 @@
         <v>1.087</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>330.62700000000001</v>
       </c>
@@ -10924,7 +10933,7 @@
         <v>0.54400000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>330.82600000000002</v>
       </c>
@@ -10962,7 +10971,7 @@
         <v>1.3009999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>331.02600000000001</v>
       </c>
@@ -11000,7 +11009,7 @@
         <v>1.1359999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>331.22699999999998</v>
       </c>
@@ -11038,7 +11047,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>331.42700000000002</v>
       </c>
@@ -11076,7 +11085,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>331.62799999999999</v>
       </c>
@@ -11114,7 +11123,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>331.82900000000001</v>
       </c>
@@ -11152,7 +11161,7 @@
         <v>0.41799999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>332.029</v>
       </c>
@@ -11190,7 +11199,7 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>332.22899999999998</v>
       </c>
@@ -11228,7 +11237,7 @@
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>332.42899999999997</v>
       </c>
@@ -68996,36 +69005,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07281655-9145-5741-9368-0DD2DF116671}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="5">
         <v>48000</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="5">
         <v>58000</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="5">
         <v>68000</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B2">
@@ -69048,9 +69091,45 @@
         <f>AVERAGE(Sheet1!K1033:K1276)</f>
         <v>77140.890217213077</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>3.4175312499999992</v>
+      </c>
+      <c r="J2">
+        <v>23.719304687499985</v>
+      </c>
+      <c r="K2">
+        <v>23.549875000000004</v>
+      </c>
+      <c r="L2">
+        <v>23.317195312500001</v>
+      </c>
+      <c r="M2">
+        <v>23.807976562500006</v>
+      </c>
+      <c r="N2">
+        <v>1.6320312499999986E-2</v>
+      </c>
+      <c r="O2">
+        <v>-3.6718749999999989E-4</v>
+      </c>
+      <c r="P2">
+        <v>8.4140625000000024E-2</v>
+      </c>
+      <c r="Q2">
+        <v>2.3757812499999989E-2</v>
+      </c>
+      <c r="R2">
+        <v>9.3281249999999979E-3</v>
+      </c>
+      <c r="S2">
+        <v>0.60783593750000009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B3">
@@ -69058,12 +69137,12 @@
         <v>23.719304687499985</v>
       </c>
       <c r="C3">
-        <f>AVERAGE(Sheet1!K214:K219)</f>
-        <v>49037.075666666664</v>
+        <f>AVERAGE(Sheet1!B214:B219)</f>
+        <v>24.394166666666667</v>
       </c>
       <c r="D3">
-        <f>AVERAGE(Sheet1!K515:K716)</f>
-        <v>58075.38515841584</v>
+        <f>AVERAGE(Sheet1!B515:B716)</f>
+        <v>23.596747524752494</v>
       </c>
       <c r="E3">
         <f>AVERAGE(Sheet1!B821:B1010)</f>
@@ -69073,9 +69152,45 @@
         <f>AVERAGE(Sheet1!B1033:B1276)</f>
         <v>23.201311475409849</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="H3">
+        <v>48000</v>
+      </c>
+      <c r="I3">
+        <v>49037.075666666664</v>
+      </c>
+      <c r="J3">
+        <v>49037.075666666664</v>
+      </c>
+      <c r="K3">
+        <v>35.780666666666669</v>
+      </c>
+      <c r="L3">
+        <v>487.72300000000001</v>
+      </c>
+      <c r="M3">
+        <v>169.51166666666666</v>
+      </c>
+      <c r="N3">
+        <v>2.0636666666666668</v>
+      </c>
+      <c r="O3">
+        <v>70.504499999999993</v>
+      </c>
+      <c r="P3">
+        <v>70.149833333333333</v>
+      </c>
+      <c r="Q3">
+        <v>8.1808333333333341</v>
+      </c>
+      <c r="R3">
+        <v>23.154499999999999</v>
+      </c>
+      <c r="S3">
+        <v>24.974333333333334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B4">
@@ -69098,9 +69213,45 @@
         <f>AVERAGE(Sheet1!C1034:C1276)</f>
         <v>177.54644032921794</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="H4">
+        <v>58000</v>
+      </c>
+      <c r="I4">
+        <v>58075.38515841584</v>
+      </c>
+      <c r="J4">
+        <v>58075.38515841584</v>
+      </c>
+      <c r="K4">
+        <v>107.84531683168319</v>
+      </c>
+      <c r="L4">
+        <v>637.51896534653451</v>
+      </c>
+      <c r="M4">
+        <v>311.91754455445556</v>
+      </c>
+      <c r="N4">
+        <v>2.5616188118811887</v>
+      </c>
+      <c r="O4">
+        <v>90.997480198019787</v>
+      </c>
+      <c r="P4">
+        <v>90.223054455445563</v>
+      </c>
+      <c r="Q4">
+        <v>10.25082178217821</v>
+      </c>
+      <c r="R4">
+        <v>14.387415841584147</v>
+      </c>
+      <c r="S4">
+        <v>39.501668316831697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B5">
@@ -69123,9 +69274,45 @@
         <f>AVERAGE(Sheet1!D1033:D1276)</f>
         <v>790.63507786885259</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="H5">
+        <v>68000</v>
+      </c>
+      <c r="I5">
+        <v>67838.358042105217</v>
+      </c>
+      <c r="J5">
+        <v>23.495210526315784</v>
+      </c>
+      <c r="K5">
+        <v>143.76235263157895</v>
+      </c>
+      <c r="L5">
+        <v>718.45875263157848</v>
+      </c>
+      <c r="M5">
+        <v>335.02605263157881</v>
+      </c>
+      <c r="N5">
+        <v>3.9441473684210506</v>
+      </c>
+      <c r="O5">
+        <v>138.09496315789471</v>
+      </c>
+      <c r="P5">
+        <v>136.88398947368421</v>
+      </c>
+      <c r="Q5">
+        <v>17.049936842105254</v>
+      </c>
+      <c r="R5">
+        <v>17.063547368421062</v>
+      </c>
+      <c r="S5">
+        <v>54.71584210526315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B6">
@@ -69148,9 +69335,45 @@
         <f>AVERAGE(Sheet1!E1033:E1276)</f>
         <v>349.48406147540999</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6">
+        <v>77140.890217213077</v>
+      </c>
+      <c r="J6">
+        <v>23.201311475409849</v>
+      </c>
+      <c r="K6">
+        <v>177.54644032921794</v>
+      </c>
+      <c r="L6">
+        <v>790.63507786885259</v>
+      </c>
+      <c r="M6">
+        <v>349.48406147540999</v>
+      </c>
+      <c r="N6">
+        <v>5.8400983606557384</v>
+      </c>
+      <c r="O6">
+        <v>195.1615450819672</v>
+      </c>
+      <c r="P6">
+        <v>192.84020491803284</v>
+      </c>
+      <c r="Q6">
+        <v>25.907717213114751</v>
+      </c>
+      <c r="R6">
+        <v>23.002139344262332</v>
+      </c>
+      <c r="S6">
+        <v>81.226553278688598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B7">
@@ -69174,8 +69397,8 @@
         <v>5.8400983606557384</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B8">
@@ -69199,8 +69422,8 @@
         <v>195.1615450819672</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B9">
@@ -69224,8 +69447,8 @@
         <v>192.84020491803284</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B10">
@@ -69249,8 +69472,8 @@
         <v>25.907717213114751</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B11">
@@ -69274,8 +69497,8 @@
         <v>23.002139344262332</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B12">
@@ -69299,18 +69522,40 @@
         <v>81.226553278688598</v>
       </c>
     </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <f>B3+273.15</f>
+        <v>296.86930468749995</v>
+      </c>
+      <c r="C15">
+        <f>C3+273.15</f>
+        <v>297.54416666666663</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:F15" si="0">D3+273.15</f>
+        <v>296.74674752475249</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>296.64521052631574</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>296.35131147540983</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A65B60A-661F-0F43-B3E3-27F4D90D7D8F}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="I6" sqref="A1:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -69318,119 +69563,273 @@
     <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="J1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>297.04989999999998</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>296.87959999999998</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>296.64589999999998</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>297.12779999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="F2" s="2">
+        <f>Sheet1!$O$1-'Question 3'!N2</f>
+        <v>97.583679687499995</v>
+      </c>
+      <c r="G2" s="2">
+        <f>Sheet1!$O$1+'Question 3'!O2</f>
+        <v>97.599632812499991</v>
+      </c>
+      <c r="H2" s="2">
+        <f>Sheet1!$O$1+'Question 3'!P2</f>
+        <v>97.684140624999998</v>
+      </c>
+      <c r="I2" s="2">
+        <f>Sheet1!$O$1-'Question 3'!Q2</f>
+        <v>97.5762421875</v>
+      </c>
+      <c r="J2" s="2">
+        <f>1.3068+(A9-295)*(1.386-1.3068)/(300-296)</f>
+        <v>1.3438122328124988</v>
+      </c>
+      <c r="K2" s="2">
+        <f>'Question 3'!B8/'Question 3'!B7*'Querstion 3.1'!J2</f>
+        <v>-3.0234167037906885E-2</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>48000</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>296.6773</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>326.75529999999998</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>806.72550000000001</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>475.95699999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="F3" s="2">
+        <f>Sheet1!$O$1-'Question 3'!N3</f>
+        <v>95.536333333333332</v>
+      </c>
+      <c r="G3" s="2">
+        <f>Sheet1!$O$1+'Question 3'!O3</f>
+        <v>168.10449999999997</v>
+      </c>
+      <c r="H3" s="2">
+        <f>Sheet1!$O$1+'Question 3'!P3</f>
+        <v>167.74983333333333</v>
+      </c>
+      <c r="I3" s="2">
+        <f>Sheet1!$O$1-'Question 3'!Q3</f>
+        <v>89.419166666666655</v>
+      </c>
+      <c r="J3" s="2">
+        <f>1.3068+(B9-295)*(1.386-1.3068)/(300-296)</f>
+        <v>1.3571744999999991</v>
+      </c>
+      <c r="K3" s="2">
+        <f>'Question 3'!C8/'Question 3'!C7*J3</f>
+        <v>46.367425069576768</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>58000</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>96.956800000000001</v>
       </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="C4" s="2">
+        <v>383.52460000000002</v>
+      </c>
+      <c r="D4" s="2">
+        <v>946.43089999999995</v>
+      </c>
+      <c r="E4" s="2">
+        <v>593.36609999999996</v>
+      </c>
+      <c r="F4" s="2">
+        <f>Sheet1!$O$1-'Question 3'!N4</f>
+        <v>95.038381188118805</v>
+      </c>
+      <c r="G4" s="2">
+        <f>Sheet1!$O$1+'Question 3'!O4</f>
+        <v>188.59748019801978</v>
+      </c>
+      <c r="H4" s="2">
+        <f>Sheet1!$O$1+'Question 3'!P4</f>
+        <v>187.82305445544557</v>
+      </c>
+      <c r="I4" s="2">
+        <f>Sheet1!$O$1-'Question 3'!Q4</f>
+        <v>87.349178217821787</v>
+      </c>
+      <c r="J4" s="2">
+        <f>1.3068+(C9-295)*(1.386-1.3068)/(300-296)</f>
+        <v>1.3413856009900993</v>
+      </c>
+      <c r="K4" s="2">
+        <f>'Question 3'!D8/'Question 3'!D7*J4</f>
+        <v>47.650614173295224</v>
+      </c>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>68000</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>296.83449999999999</v>
       </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="C5" s="2">
+        <v>418.50549999999998</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1037.5250000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>605.28650000000005</v>
+      </c>
+      <c r="F5" s="2">
+        <f>Sheet1!$O$1-'Question 3'!N5</f>
+        <v>93.655852631578938</v>
+      </c>
+      <c r="G5" s="2">
+        <f>Sheet1!$O$1+'Question 3'!O5</f>
+        <v>235.6949631578947</v>
+      </c>
+      <c r="H5" s="2">
+        <f>Sheet1!$O$1+'Question 3'!P5</f>
+        <v>234.4839894736842</v>
+      </c>
+      <c r="I5" s="2">
+        <f>Sheet1!$O$1-'Question 3'!Q5</f>
+        <v>80.550063157894741</v>
+      </c>
+      <c r="J5" s="2">
+        <f>1.3068+(D9-295)*(1.386-1.3068)/(300-296)</f>
+        <v>1.3393751684210515</v>
+      </c>
+      <c r="K5" s="2">
+        <f>J5*'Question 3'!E8/'Question 3'!E7</f>
+        <v>46.89504403882075</v>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>296.5224</v>
       </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
+      <c r="C6" s="2">
+        <v>452.75880000000001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1119.557</v>
+      </c>
+      <c r="E6" s="2">
+        <v>630.99210000000005</v>
+      </c>
+      <c r="F6" s="2">
+        <f>Sheet1!$O$1-'Question 3'!N6</f>
+        <v>91.75990163934425</v>
+      </c>
+      <c r="G6" s="2">
+        <f>Sheet1!$O$1+'Question 3'!O6</f>
+        <v>292.7615450819672</v>
+      </c>
+      <c r="H6" s="2">
+        <f>Sheet1!$O$1+'Question 3'!P6</f>
+        <v>290.4402049180328</v>
+      </c>
+      <c r="I6" s="2">
+        <f>Sheet1!$O$1-'Question 3'!Q6</f>
+        <v>71.692282786885244</v>
+      </c>
+      <c r="J6" s="2">
+        <f>1.3068+(E9-295)*(1.386-1.3068)/(300-296)</f>
+        <v>1.3335559672131145</v>
+      </c>
+      <c r="K6" s="2">
+        <f>J6*'Question 3'!F8/'Question 3'!F7</f>
+        <v>44.564119804544909</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>296.86930468749995</v>
+      </c>
+      <c r="B9">
+        <v>297.54416666666663</v>
+      </c>
+      <c r="C9">
+        <v>296.74674752475249</v>
+      </c>
+      <c r="D9">
+        <v>296.64521052631574</v>
+      </c>
+      <c r="E9">
+        <v>296.35131147540983</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Lab 5/Lab 5.xlsx
+++ b/Lab 5/Lab 5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prahershkumar/Documents/Prahersh Kumar/School /UIUC/Classes/Fall 2022/AE 460/AE-460/Lab 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3889DCC8-980F-EA4C-B526-A3857118A674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EA9A94-7FBC-BD42-8F41-22BEDD6D323C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1940" yWindow="1200" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{AB60D2C1-0B5B-2B40-AA37-C588C28FD481}"/>
   </bookViews>
@@ -69555,7 +69555,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="A1:L6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -69628,8 +69628,8 @@
         <v>97.684140624999998</v>
       </c>
       <c r="I2" s="2">
-        <f>Sheet1!$O$1-'Question 3'!Q2</f>
-        <v>97.5762421875</v>
+        <f>Sheet1!$O$1</f>
+        <v>97.6</v>
       </c>
       <c r="J2" s="2">
         <f>1.3068+(A9-295)*(1.386-1.3068)/(300-296)</f>
@@ -69672,8 +69672,8 @@
         <v>167.74983333333333</v>
       </c>
       <c r="I3" s="2">
-        <f>Sheet1!$O$1-'Question 3'!Q3</f>
-        <v>89.419166666666655</v>
+        <f>Sheet1!$O$1</f>
+        <v>97.6</v>
       </c>
       <c r="J3" s="2">
         <f>1.3068+(B9-295)*(1.386-1.3068)/(300-296)</f>
@@ -69714,8 +69714,8 @@
         <v>187.82305445544557</v>
       </c>
       <c r="I4" s="2">
-        <f>Sheet1!$O$1-'Question 3'!Q4</f>
-        <v>87.349178217821787</v>
+        <f>Sheet1!$O$1</f>
+        <v>97.6</v>
       </c>
       <c r="J4" s="2">
         <f>1.3068+(C9-295)*(1.386-1.3068)/(300-296)</f>
@@ -69756,8 +69756,8 @@
         <v>234.4839894736842</v>
       </c>
       <c r="I5" s="2">
-        <f>Sheet1!$O$1-'Question 3'!Q5</f>
-        <v>80.550063157894741</v>
+        <f>Sheet1!$O$1</f>
+        <v>97.6</v>
       </c>
       <c r="J5" s="2">
         <f>1.3068+(D9-295)*(1.386-1.3068)/(300-296)</f>
@@ -69798,8 +69798,8 @@
         <v>290.4402049180328</v>
       </c>
       <c r="I6" s="2">
-        <f>Sheet1!$O$1-'Question 3'!Q6</f>
-        <v>71.692282786885244</v>
+        <f>Sheet1!$O$1</f>
+        <v>97.6</v>
       </c>
       <c r="J6" s="2">
         <f>1.3068+(E9-295)*(1.386-1.3068)/(300-296)</f>

--- a/Lab 5/Lab 5.xlsx
+++ b/Lab 5/Lab 5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prahershkumar/Documents/Prahersh Kumar/School /UIUC/Classes/Fall 2022/AE 460/AE-460/Lab 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EA9A94-7FBC-BD42-8F41-22BEDD6D323C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E2B344-3614-9449-A125-F9D5E1BEF44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="1200" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{AB60D2C1-0B5B-2B40-AA37-C588C28FD481}"/>
+    <workbookView xWindow="37320" yWindow="5080" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{AB60D2C1-0B5B-2B40-AA37-C588C28FD481}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_2022_10_30_Sample_Data" localSheetId="0">Sheet1!$A$1:$L$1535</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{FC92C7C4-3500-D04A-B337-B04A942D49EF}" name="2022-10-30 Sample Data" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/prahershkumar/Documents/Prahersh Kumar/School /UIUC/Classes/Fall 2022/AE 460/AE-460/Lab 5/2022-10-30 Sample Data.txt">
+    <textPr sourceFile="/Users/prahershkumar/Documents/Prahersh Kumar/School /UIUC/Classes/Fall 2022/AE 460/AE-460/Lab 5/2022-10-30 Sample Data.txt">
       <textFields count="12">
         <textField/>
         <textField/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>Time (sec)</t>
   </si>
@@ -160,7 +160,10 @@
     <t>h2s</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>pr3</t>
+  </si>
+  <si>
+    <t>pr4</t>
   </si>
 </sst>
 </file>
@@ -190,12 +193,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFADD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -210,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -225,12 +234,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFADD3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -69008,7 +69029,7 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -69547,15 +69568,16 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A65B60A-661F-0F43-B3E3-27F4D90D7D8F}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -69563,7 +69585,7 @@
     <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>24</v>
@@ -69598,52 +69620,59 @@
       <c r="L1" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="M1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="7">
         <v>297.04989999999998</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="7">
         <v>296.87959999999998</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="7">
         <v>296.64589999999998</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="7">
         <v>297.12779999999998</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="7">
         <f>Sheet1!$O$1-'Question 3'!N2</f>
         <v>97.583679687499995</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="7">
         <f>Sheet1!$O$1+'Question 3'!O2</f>
         <v>97.599632812499991</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="7">
         <f>Sheet1!$O$1+'Question 3'!P2</f>
         <v>97.684140624999998</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="7">
         <f>Sheet1!$O$1</f>
         <v>97.6</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="7">
         <f>1.3068+(A9-295)*(1.386-1.3068)/(300-296)</f>
         <v>1.3438122328124988</v>
       </c>
-      <c r="K2" s="2">
-        <f>'Question 3'!B8/'Question 3'!B7*'Querstion 3.1'!J2</f>
-        <v>-3.0234167037906885E-2</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K2" s="7">
+        <f>J2*G2/F2</f>
+        <v>1.3440319212337106</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>48000</v>
       </c>
@@ -69680,12 +69709,20 @@
         <v>1.3571744999999991</v>
       </c>
       <c r="K3" s="2">
-        <f>'Question 3'!C8/'Question 3'!C7*J3</f>
-        <v>46.367425069576768</v>
+        <f>J3*G3/F3</f>
+        <v>2.3880667467028229</v>
       </c>
       <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" s="2">
+        <f>7.268+(B11-480)*(7.824-7.268)/(490-480)</f>
+        <v>7.6973988000000002</v>
+      </c>
+      <c r="N3">
+        <f>M3*I3/H3</f>
+        <v>4.4784910241142812</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>58000</v>
       </c>
@@ -69722,12 +69759,20 @@
         <v>1.3413856009900993</v>
       </c>
       <c r="K4" s="2">
-        <f>'Question 3'!D8/'Question 3'!D7*J4</f>
-        <v>47.650614173295224</v>
+        <f>J4*G4/F4</f>
+        <v>2.6618923971346597</v>
       </c>
       <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="2">
+        <f>19.84+(C11-630)*(20.64-19.84)/(640-630)</f>
+        <v>20.441517227722763</v>
+      </c>
+      <c r="N4">
+        <f>M4*I4/H4</f>
+        <v>10.622189524124725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>68000</v>
       </c>
@@ -69764,12 +69809,20 @@
         <v>1.3393751684210515</v>
       </c>
       <c r="K5" s="2">
-        <f>J5*'Question 3'!E8/'Question 3'!E7</f>
-        <v>46.89504403882075</v>
+        <f>J5*G5/F5</f>
+        <v>3.3706807647935095</v>
       </c>
       <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="2">
+        <f>30.38 +(D11-710)*(32.02-30.38 )/(720-710)</f>
+        <v>31.767235431578872</v>
+      </c>
+      <c r="N5">
+        <f>M5*I5/H5</f>
+        <v>13.222575174882293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -69806,12 +69859,19 @@
         <v>1.3335559672131145</v>
       </c>
       <c r="K6" s="2">
-        <f>J6*'Question 3'!F8/'Question 3'!F7</f>
-        <v>44.564119804544909</v>
+        <f>J6*G6/F6</f>
+        <v>4.2547332597312781</v>
       </c>
       <c r="L6" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6">
+        <v>45.55</v>
+      </c>
+      <c r="N6">
+        <f>M6*I6/H6</f>
+        <v>15.306696265603607</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>296.86930468749995</v>
       </c>
@@ -69826,6 +69886,23 @@
       </c>
       <c r="E9">
         <v>296.35131147540983</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>23.317195312500001</v>
+      </c>
+      <c r="B11">
+        <v>487.72300000000001</v>
+      </c>
+      <c r="C11">
+        <v>637.51896534653451</v>
+      </c>
+      <c r="D11">
+        <v>718.45875263157848</v>
+      </c>
+      <c r="E11">
+        <v>790.63507786885259</v>
       </c>
     </row>
   </sheetData>

--- a/Lab 5/Lab 5.xlsx
+++ b/Lab 5/Lab 5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prahershkumar/Documents/Prahersh Kumar/School /UIUC/Classes/Fall 2022/AE 460/AE-460/Lab 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E2B344-3614-9449-A125-F9D5E1BEF44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0059417-30CC-A14E-A18D-1C85C1E6186E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="5080" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{AB60D2C1-0B5B-2B40-AA37-C588C28FD481}"/>
+    <workbookView xWindow="37900" yWindow="2880" windowWidth="28040" windowHeight="21400" activeTab="2" xr2:uid="{AB60D2C1-0B5B-2B40-AA37-C588C28FD481}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Time (sec)</t>
   </si>
@@ -165,6 +165,15 @@
   <si>
     <t>pr4</t>
   </si>
+  <si>
+    <t>h4s</t>
+  </si>
+  <si>
+    <t>Compressor Efficiency</t>
+  </si>
+  <si>
+    <t>Turbine Efficiency</t>
+  </si>
 </sst>
 </file>
 
@@ -219,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -241,6 +250,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10665,8 +10675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89748FBD-FF85-004A-B9FE-B732D65AA51D}">
   <dimension ref="A1:O1535"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="A255" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="K212" sqref="K212:K263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -69026,10 +69036,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07281655-9145-5741-9368-0DD2DF116671}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F5"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -69097,8 +69107,8 @@
         <v>3.4175312499999992</v>
       </c>
       <c r="C2">
-        <f>AVERAGE(Sheet1!K214:K219)</f>
-        <v>49037.075666666664</v>
+        <f>AVERAGE(Sheet1!K214:K263)</f>
+        <v>48825.591039999992</v>
       </c>
       <c r="D2">
         <f>AVERAGE(Sheet1!K515:K716)</f>
@@ -69158,8 +69168,8 @@
         <v>23.719304687499985</v>
       </c>
       <c r="C3">
-        <f>AVERAGE(Sheet1!B214:B219)</f>
-        <v>24.394166666666667</v>
+        <f>AVERAGE(Sheet1!B214:B263)</f>
+        <v>23.716280000000001</v>
       </c>
       <c r="D3">
         <f>AVERAGE(Sheet1!B515:B716)</f>
@@ -69219,8 +69229,8 @@
         <v>23.549875000000004</v>
       </c>
       <c r="C4">
-        <f>AVERAGE(Sheet1!C214:C219)</f>
-        <v>35.780666666666669</v>
+        <f>AVERAGE(Sheet1!C214:C263)</f>
+        <v>47.009739999999994</v>
       </c>
       <c r="D4">
         <f>AVERAGE(Sheet1!C515:C716)</f>
@@ -69280,8 +69290,8 @@
         <v>23.317195312500001</v>
       </c>
       <c r="C5">
-        <f>AVERAGE(Sheet1!D214:D219)</f>
-        <v>487.72300000000001</v>
+        <f>AVERAGE(Sheet1!D214:D263)</f>
+        <v>503.71813999999989</v>
       </c>
       <c r="D5">
         <f>AVERAGE(Sheet1!D515:D716)</f>
@@ -69341,8 +69351,8 @@
         <v>23.807976562500006</v>
       </c>
       <c r="C6">
-        <f>AVERAGE(Sheet1!E214:E219)</f>
-        <v>169.51166666666666</v>
+        <f>AVERAGE(Sheet1!E214:E263)</f>
+        <v>189.01193999999995</v>
       </c>
       <c r="D6">
         <f>AVERAGE(Sheet1!E515:E716)</f>
@@ -69402,8 +69412,8 @@
         <v>1.6320312499999986E-2</v>
       </c>
       <c r="C7">
-        <f>AVERAGE(Sheet1!F214:F219)</f>
-        <v>2.0636666666666668</v>
+        <f>AVERAGE(Sheet1!F214:F263)</f>
+        <v>1.6944000000000004</v>
       </c>
       <c r="D7">
         <f>AVERAGE(Sheet1!F515:F716)</f>
@@ -69427,8 +69437,8 @@
         <v>-3.6718749999999989E-4</v>
       </c>
       <c r="C8">
-        <f>AVERAGE(Sheet1!G214:G219)</f>
-        <v>70.504499999999993</v>
+        <f>AVERAGE(Sheet1!G214:G263)</f>
+        <v>59.244360000000007</v>
       </c>
       <c r="D8">
         <f>AVERAGE(Sheet1!G515:G716)</f>
@@ -69452,8 +69462,8 @@
         <v>8.4140625000000024E-2</v>
       </c>
       <c r="C9">
-        <f>AVERAGE(Sheet1!H214:H219)</f>
-        <v>70.149833333333333</v>
+        <f>AVERAGE(Sheet1!H214:H263)</f>
+        <v>58.827999999999996</v>
       </c>
       <c r="D9">
         <f>AVERAGE(Sheet1!H515:H716)</f>
@@ -69477,8 +69487,8 @@
         <v>2.3757812499999989E-2</v>
       </c>
       <c r="C10">
-        <f>AVERAGE(Sheet1!I214:I219)</f>
-        <v>8.1808333333333341</v>
+        <f>AVERAGE(Sheet1!I214:I263)</f>
+        <v>6.1367799999999999</v>
       </c>
       <c r="D10">
         <f>AVERAGE(Sheet1!I515:I716)</f>
@@ -69502,8 +69512,8 @@
         <v>9.3281249999999979E-3</v>
       </c>
       <c r="C11">
-        <f>AVERAGE(Sheet1!J214:J219)</f>
-        <v>23.154499999999999</v>
+        <f>AVERAGE(Sheet1!J214:J263)</f>
+        <v>14.561959999999999</v>
       </c>
       <c r="D11">
         <f>AVERAGE(Sheet1!J515:J716)</f>
@@ -69527,8 +69537,8 @@
         <v>0.60783593750000009</v>
       </c>
       <c r="C12">
-        <f>AVERAGE(Sheet1!L214:L219)</f>
-        <v>24.974333333333334</v>
+        <f>AVERAGE(Sheet1!L214:L263)</f>
+        <v>23.290200000000006</v>
       </c>
       <c r="D12">
         <f>AVERAGE(Sheet1!L515:L716)</f>
@@ -69550,7 +69560,7 @@
       </c>
       <c r="C15">
         <f>C3+273.15</f>
-        <v>297.54416666666663</v>
+        <v>296.86627999999996</v>
       </c>
       <c r="D15">
         <f t="shared" ref="D15:F15" si="0">D3+273.15</f>
@@ -69563,6 +69573,12 @@
       <c r="F15">
         <f t="shared" si="0"/>
         <v>296.35131147540983</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <f>C3+273.15</f>
+        <v>296.86627999999996</v>
       </c>
     </row>
   </sheetData>
@@ -69574,18 +69590,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A65B60A-661F-0F43-B3E3-27F4D90D7D8F}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>24</v>
@@ -69626,8 +69644,17 @@
       <c r="N1" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -69672,7 +69699,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>48000</v>
       </c>
@@ -69705,29 +69732,42 @@
         <v>97.6</v>
       </c>
       <c r="J3" s="2">
-        <f>1.3068+(B9-295)*(1.386-1.3068)/(300-296)</f>
-        <v>1.3571744999999991</v>
+        <f>1.3068+(B9-295)*(1.386-1.3068)/(300-295)</f>
+        <v>1.3470995999999993</v>
       </c>
       <c r="K3" s="2">
         <f>J3*G3/F3</f>
-        <v>2.3880667467028229</v>
-      </c>
-      <c r="L3" s="2"/>
+        <v>2.3703390825989397</v>
+      </c>
+      <c r="L3">
+        <v>350.11080246</v>
+      </c>
       <c r="M3" s="2">
-        <f>7.268+(B11-480)*(7.824-7.268)/(490-480)</f>
-        <v>7.6973988000000002</v>
+        <f>41.31 +(B12-770)*(43.35 - 41.31)/(780-770)</f>
+        <v>42.711100559999963</v>
       </c>
       <c r="N3">
         <f>M3*I3/H3</f>
-        <v>4.4784910241142812</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>24.850119560909626</v>
+      </c>
+      <c r="O3">
+        <v>684.1374654</v>
+      </c>
+      <c r="P3">
+        <f>(L3-B3)/(C3-B3)</f>
+        <v>1.7764978542456296</v>
+      </c>
+      <c r="Q3">
+        <f>(D3-E3)/(D3-O3)</f>
+        <v>2.6982119509402755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>58000</v>
       </c>
       <c r="B4" s="2">
-        <v>96.956800000000001</v>
+        <v>296.95679999999999</v>
       </c>
       <c r="C4" s="2">
         <v>383.52460000000002</v>
@@ -69762,17 +69802,30 @@
         <f>J4*G4/F4</f>
         <v>2.6618923971346597</v>
       </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="2">
+        <v>361.94148228</v>
+      </c>
       <c r="M4" s="2">
-        <f>19.84+(C11-630)*(20.64-19.84)/(640-630)</f>
-        <v>20.441517227722763</v>
+        <f>75.29+(C12-900)*(82.05-75.29)/(920-900)</f>
+        <v>78.896110287128664</v>
       </c>
       <c r="N4">
         <f>M4*I4/H4</f>
-        <v>10.622189524124725</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>40.997418481714526</v>
+      </c>
+      <c r="O4">
+        <v>776.51136629999996</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P6" si="0">(L4-B4)/(C4-B4)</f>
+        <v>0.75067960927735244</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q5" si="1">(D4-E4)/(D4-O4)</f>
+        <v>2.0778352689182316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>68000</v>
       </c>
@@ -69812,17 +69865,30 @@
         <f>J5*G5/F5</f>
         <v>3.3706807647935095</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2">
+        <v>387.22318863999999</v>
+      </c>
       <c r="M5" s="2">
-        <f>30.38 +(D11-710)*(32.02-30.38 )/(720-710)</f>
-        <v>31.767235431578872</v>
+        <f>105.2 +(D12-980)*(114-105.2 )/(1000-980)</f>
+        <v>110.30785115789452</v>
       </c>
       <c r="N5">
         <f>M5*I5/H5</f>
-        <v>13.222575174882293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>45.913779858384586</v>
+      </c>
+      <c r="O5">
+        <v>812.80228511999996</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>0.74289426929999758</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>1.9234303939003738</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -69862,16 +69928,30 @@
         <f>J6*G6/F6</f>
         <v>4.2547332597312781</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6">
-        <v>45.55</v>
+      <c r="L6" s="2">
+        <v>404.22411006999999</v>
+      </c>
+      <c r="M6" s="2">
+        <f>143.9 +(E12-1060)*(155.2-143.9 )/(1080-1060)</f>
+        <v>146.0385689959017</v>
       </c>
       <c r="N6">
         <f>M6*I6/H6</f>
-        <v>15.306696265603607</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>49.075038829498652</v>
+      </c>
+      <c r="O6">
+        <v>827.98111682000001</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>0.68935094555430099</v>
+      </c>
+      <c r="Q6">
+        <f>(D6-E6)/(D6-O6)</f>
+        <v>1.6756012008660941</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>296.86930468749995</v>
       </c>
@@ -69888,12 +69968,12 @@
         <v>296.35131147540983</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>23.317195312500001</v>
       </c>
       <c r="B11">
-        <v>487.72300000000001</v>
+        <v>503.71813999999989</v>
       </c>
       <c r="C11">
         <v>637.51896534653451</v>
@@ -69903,6 +69983,24 @@
       </c>
       <c r="E11">
         <v>790.63507786885259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B12" s="9">
+        <f>B11+273.15</f>
+        <v>776.86813999999981</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" ref="C12:E12" si="2">C11+273.15</f>
+        <v>910.66896534653449</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="2"/>
+        <v>991.60875263157845</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="2"/>
+        <v>1063.7850778688526</v>
       </c>
     </row>
   </sheetData>

--- a/Lab 5/Lab 5.xlsx
+++ b/Lab 5/Lab 5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prahershkumar/Documents/Prahersh Kumar/School /UIUC/Classes/Fall 2022/AE 460/AE-460/Lab 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0059417-30CC-A14E-A18D-1C85C1E6186E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89240355-DBBE-8E4C-A7C1-642D3F474B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37900" yWindow="2880" windowWidth="28040" windowHeight="21400" activeTab="2" xr2:uid="{AB60D2C1-0B5B-2B40-AA37-C588C28FD481}"/>
+    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" activeTab="2" xr2:uid="{AB60D2C1-0B5B-2B40-AA37-C588C28FD481}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10675,8 +10675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89748FBD-FF85-004A-B9FE-B732D65AA51D}">
   <dimension ref="A1:O1535"/>
   <sheetViews>
-    <sheetView topLeftCell="A255" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="K212" sqref="K212:K263"/>
+    <sheetView zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="K257" sqref="K257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -69039,7 +69039,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -69592,8 +69592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A65B60A-661F-0F43-B3E3-27F4D90D7D8F}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -69688,11 +69688,11 @@
       </c>
       <c r="J2" s="7">
         <f>1.3068+(A9-295)*(1.386-1.3068)/(300-296)</f>
-        <v>1.3438122328124988</v>
+        <v>-4.5341999999999958</v>
       </c>
       <c r="K2" s="7">
         <f>J2*G2/F2</f>
-        <v>1.3440319212337106</v>
+        <v>-4.5349412577554586</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -69716,16 +69716,16 @@
         <v>475.95699999999999</v>
       </c>
       <c r="F3" s="2">
-        <f>Sheet1!$O$1-'Question 3'!N3</f>
-        <v>95.536333333333332</v>
+        <f>Sheet1!$O$1-'Question 3'!C7</f>
+        <v>95.905599999999993</v>
       </c>
       <c r="G3" s="2">
-        <f>Sheet1!$O$1+'Question 3'!O3</f>
-        <v>168.10449999999997</v>
+        <f>Sheet1!$O$1+'Question 3'!C8</f>
+        <v>156.84435999999999</v>
       </c>
       <c r="H3" s="2">
-        <f>Sheet1!$O$1+'Question 3'!P3</f>
-        <v>167.74983333333333</v>
+        <f>Sheet1!$O$1+'Question 3'!C9</f>
+        <v>156.428</v>
       </c>
       <c r="I3" s="2">
         <f>Sheet1!$O$1</f>
@@ -69733,14 +69733,14 @@
       </c>
       <c r="J3" s="2">
         <f>1.3068+(B9-295)*(1.386-1.3068)/(300-295)</f>
-        <v>1.3470995999999993</v>
+        <v>1.3363618751999993</v>
       </c>
       <c r="K3" s="2">
         <f>J3*G3/F3</f>
-        <v>2.3703390825989397</v>
+        <v>2.1854909728331169</v>
       </c>
       <c r="L3">
-        <v>350.11080246</v>
+        <v>349.28357552</v>
       </c>
       <c r="M3" s="2">
         <f>41.31 +(B12-770)*(43.35 - 41.31)/(780-770)</f>
@@ -69748,14 +69748,14 @@
       </c>
       <c r="N3">
         <f>M3*I3/H3</f>
-        <v>24.850119560909626</v>
+        <v>26.648703650599611</v>
       </c>
       <c r="O3">
         <v>684.1374654</v>
       </c>
       <c r="P3">
-        <f>(L3-B3)/(C3-B3)</f>
-        <v>1.7764978542456296</v>
+        <f t="shared" ref="P3:P6" si="0">(L3-B3)/(C3-B3)</f>
+        <v>1.7489951299953468</v>
       </c>
       <c r="Q3">
         <f>(D3-E3)/(D3-O3)</f>
@@ -69817,7 +69817,7 @@
         <v>776.51136629999996</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P6" si="0">(L4-B4)/(C4-B4)</f>
+        <f t="shared" si="0"/>
         <v>0.75067960927735244</v>
       </c>
       <c r="Q4">
@@ -69952,26 +69952,20 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>296.86930468749995</v>
-      </c>
-      <c r="B9">
-        <v>297.54416666666663</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="9">
+        <v>296.86627999999996</v>
+      </c>
+      <c r="C9" s="9">
         <v>296.74674752475249</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="9">
         <v>296.64521052631574</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="9">
         <v>296.35131147540983</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>23.317195312500001</v>
-      </c>
       <c r="B11">
         <v>503.71813999999989</v>
       </c>
